--- a/data/prematurity/prematurity rate.xlsx
+++ b/data/prematurity/prematurity rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://righttocare-my.sharepoint.com/personal/shida_nyimbili_righttocare-zambia_org/Documents/Desktop/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snyimbili\Desktop\IHM\Zambia-E4H\data\prematurity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A8D08A7-6916-479F-B6FE-C90B22E2DB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C501A61E-AD5B-401C-9F10-6CCBED4DF9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{59DC9513-A116-41AF-9797-6EB736312B07}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{10FE694C-1BE5-4F10-A7BC-49E7AEC14106}"/>
   </bookViews>
   <sheets>
     <sheet name="Prematurity" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Month</t>
+    <t>Prematurity percentage</t>
   </si>
   <si>
-    <t>Prematurity percentage</t>
+    <t>period</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B682FCC8-DAD9-4E65-ACDF-9393C6EC551C}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{058226D5-C2AA-40F4-94F2-092C2977E54F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,154 +406,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2242687-9268-4048-AC28-BF82AE04C03D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4908F68E-C75C-4268-A1C8-88CB40E42604}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
